--- a/medicine/Psychotrope/Jean-Claude_Jambon/Jean-Claude_Jambon.xlsx
+++ b/medicine/Psychotrope/Jean-Claude_Jambon/Jean-Claude_Jambon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Claude Jambon est un sommelier français élu « Meilleur sommelier du monde 1986 »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude Jambon est un sommelier français élu « Meilleur sommelier du monde 1986 ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Jambon voyage durant deux ans sur un bateau puis devient sommelier du restaurant  « Faugeron » dans le 16e arrondissement de Paris depuis 1977. Il est très attaché à la région de son enfance du Beaujolais.
 </t>
@@ -542,7 +556,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1962 et 1972 - Finaliste Meilleur Sommelier de France
 1972 et 1974 - Sommelier de l'Année « Bourgogne-Jura-Savoie »
